--- a/資料/char.xlsx
+++ b/資料/char.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\麻生情報ビジネス専門学校\3年\5月制作\Charlotte-quest\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE61D71F-142C-4386-BF85-2BFAF31932F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B66A0B7-57ED-4141-BB72-75ABDDF830CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="キャラ紹介" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -15782,7 +15787,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -21627,7 +21632,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
